--- a/biology/Botanique/Lamiini/Lamiini.xlsx
+++ b/biology/Botanique/Lamiini/Lamiini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Lamiini sont une tribu de coléoptères cérambycidés lamiaires.
 </t>
@@ -511,10 +523,12 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les représentants des Lamiini sont assez faciles à reconnaître parmi les autres Lamiinae par la présence d'une carène (parfois appelée cicatrice) qui forme un anneau épaissi à l'apex du premier segment des antennes[1],[2].
-Cet anneau est présent seulement dans d'autres tribus facilement reconnaissables: les Gnomiini (indo-australiennes, caractérisés par le prothorax allongé), les Batocerini (surtout indo-australiennes, caractérisés par les hanches antérieures ouvertes) et les Phrissomini (surtout africaines, aptères)[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les représentants des Lamiini sont assez faciles à reconnaître parmi les autres Lamiinae par la présence d'une carène (parfois appelée cicatrice) qui forme un anneau épaissi à l'apex du premier segment des antennes,.
+Cet anneau est présent seulement dans d'autres tribus facilement reconnaissables: les Gnomiini (indo-australiennes, caractérisés par le prothorax allongé), les Batocerini (surtout indo-australiennes, caractérisés par les hanches antérieures ouvertes) et les Phrissomini (surtout africaines, aptères).
 Certains Lamiini (Macrohammus) atteignent une grandeur considérable, mais pas la même que les représentants de la tribu des Batocerini.
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Lamiini, souvent de grandeur moyenne ou grande, sont tous xylophages et attaquent le bois aussi bien des conifères que des arbres à feuilles. Certains se nourrissent  de bois en décomposition, mais d'autres attaquent aussi les plantes vivantes, en causant parfois des dommages considérables.
 </t>
@@ -575,11 +591,48 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Les Lamiini sont répandus dans tous les continents, surtout dans les régions tropicales, avec presque mille deux cents espèces[4].
-Liste des genres présents en France
-Les Lamiini de France sont représentés seulement par deux genres et quatre espèces, tous d'origine orientale[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Lamiini sont répandus dans tous les continents, surtout dans les régions tropicales, avec presque mille deux cents espèces.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lamiini</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lamiini</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des genres présents en France</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Lamiini de France sont représentés seulement par deux genres et quatre espèces, tous d'origine orientale :
 Lamia Fabricius, 1775
 Lamia textor (Linnaeus, 1758) - le Lamie tisserand
 Monochamus Dejean, 1821
@@ -592,10 +645,79 @@
 			Monochamus sutor(Linné, 1758) ♂
 			Monochamus sartor(Fabricius, 1787) ♂
 			 Monochamus sartor(Fabricius, 1787) ♀
-Liste des genres présents dans les Antilles françaises
-Taeniotes Audinet-Serville, 1835[6]
-Autres genres (à compléter)
-Acalolepta Pascoe, 1858
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Lamiini</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lamiini</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des genres présents dans les Antilles françaises</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Taeniotes Audinet-Serville, 1835</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Lamiini</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lamiini</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Autres genres (à compléter)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Acalolepta Pascoe, 1858
 Anoplophora Hope, 1839
 Aristobia Pascoe, 1875</t>
         </is>
